--- a/basis.xlsx
+++ b/basis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peabd\Documents\GitHub\IPD_APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peabd\Documents\GitHub\IPD_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,9 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +373,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +383,9 @@
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -402,13 +406,13 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>92790000</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>57230769.200000003</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2">
@@ -419,14 +423,14 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>192000000</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>192000000</v>
+      <c r="B3" s="2">
+        <v>125192307.62499999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>125192307.62499999</v>
       </c>
       <c r="E3">
         <v>0.04</v>
@@ -436,13 +440,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>200000000</v>
-      </c>
-      <c r="C4">
-        <v>500000000</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="2">
+        <v>90842490.793650776</v>
+      </c>
+      <c r="C4" s="2">
+        <v>227106226.98412696</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4">
@@ -453,13 +457,13 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>12000000</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2">
+        <v>79487179.444444433</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5">
@@ -470,13 +474,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>10000000</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2">
+        <v>10333333.327777777</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6">
